--- a/TAXI_INC_EXPENSES_ACCOUNT_YEARLY.xlsx
+++ b/TAXI_INC_EXPENSES_ACCOUNT_YEARLY.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zubair\Documents\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zubair\Documents\Tax-Matters-Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3BB74C-ED76-4BFA-A3F2-74002F13D679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Logic" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Income</t>
   </si>
@@ -104,16 +111,46 @@
   </si>
   <si>
     <t>License Fee</t>
+  </si>
+  <si>
+    <t>Change Period</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> To change the period below click on the red cell [B7] on the left. You will see a dropdown arrow. Click on the drop down arrow to change the financial year as instructed by Tax Matters. </t>
+    </r>
+  </si>
+  <si>
+    <t>Subtract Year</t>
+  </si>
+  <si>
+    <t>Financial Period Default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +241,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -294,17 +343,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -380,6 +418,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -387,12 +488,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -404,16 +505,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -429,8 +529,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="17" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -445,16 +545,16 @@
     <xf numFmtId="17" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1"/>
@@ -468,30 +568,46 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="14" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -547,13 +663,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>637761</xdr:colOff>
+      <xdr:colOff>798955</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>3516</xdr:colOff>
+      <xdr:colOff>10845</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>4242</xdr:rowOff>
     </xdr:to>
@@ -584,8 +700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8092109" y="0"/>
-          <a:ext cx="1063689" cy="1122394"/>
+          <a:off x="8785301" y="0"/>
+          <a:ext cx="1058275" cy="1103280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -594,18 +710,71 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532076</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>423924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>734335</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>902972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C525B9D6-3B24-4CFB-8D20-D4DF4E99BD39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5507057" y="2028520"/>
+          <a:ext cx="4078201" cy="479048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table2" displayName="Table2" ref="B9:F12" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B9:F12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B9:F12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B9:F12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Today"/>
-    <tableColumn id="2" name="Date Between"/>
-    <tableColumn id="3" name="Year"/>
-    <tableColumn id="4" name="Start" dataDxfId="0"/>
-    <tableColumn id="5" name="End"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Today"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date Between"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Start" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="End"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -873,397 +1042,404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="15" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="14" style="15" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.26953125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="14" customWidth="1"/>
+    <col min="7" max="8" width="11.453125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="11.7265625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="14" style="14" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="0.453125" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="str">
+    <row r="1" spans="1:13" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="str">
         <f ca="1">CONCATENATE("Yearly Account:"," MARCH ",YEAR(A30))</f>
-        <v>Yearly Account: MARCH 2019</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+        <v>Yearly Account: MARCH 2021</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="5"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:13" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="str">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="str">
         <f ca="1">CONCATENATE("Income &amp; Expenses for ",TEXT(A8,"dd-mm-yyyy")," to ",TEXT(DATE(YEAR(A30),MONTH(A30)+1,0),"dd-mm-yyyy"))</f>
-        <v>Income &amp; Expenses for 01-04-2018 to 31-03-2019</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+        <v>Income &amp; Expenses for 01-04-2020 to 31-03-2021</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="10"/>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.4">
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-    </row>
-    <row r="6" spans="1:12" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:13" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="str">
-        <f ca="1">TEXT(VLOOKUP(TRUE,Table2[[#All],[Date Between]:[End]],3,FALSE),"MMM-YY")</f>
-        <v>Apr-18</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+    <row r="7" spans="1:13" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="str">
+        <f ca="1">IF(OR(ISBLANK(B7),ISTEXT(B7)),TEXT(VLOOKUP(TRUE,Table2[[#All],[Date Between]:[End]],3,FALSE),"MMM-YY"),B7)</f>
+        <v>Apr-20</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="25">
         <f ca="1">EDATE(A8,1)</f>
-        <v>43221</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="25">
         <f ca="1">EDATE(A10,1)</f>
-        <v>43252</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+        <v>43983</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="25">
         <f ca="1">EDATE(A12,1)</f>
-        <v>43282</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+        <v>44013</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="25">
         <f ca="1">EDATE(A14,1)</f>
-        <v>43313</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="26">
+        <v>44044</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="25">
         <f ca="1">EDATE(A16,1)</f>
-        <v>43344</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="26">
+        <v>44075</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="25">
         <f ca="1">EDATE(A18,1)</f>
-        <v>43374</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="26">
+        <v>44105</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="25">
         <f ca="1">EDATE(A20,1)</f>
-        <v>43405</v>
-      </c>
-      <c r="B22" s="14" t="s">
+        <v>44136</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -1275,25 +1451,25 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="26">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="25">
         <f ca="1">EDATE(A22,1)</f>
-        <v>43435</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
+        <v>44166</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -1305,25 +1481,25 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="25">
         <f ca="1">EDATE(A24,1)</f>
-        <v>43466</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
+        <v>44197</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="25"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1335,25 +1511,25 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="26">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="25">
         <f ca="1">EDATE(A26,1)</f>
-        <v>43497</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
+        <v>44228</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="25"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -1365,110 +1541,111 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="26">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="25">
         <f ca="1">EDATE(A28,1)</f>
-        <v>43525</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="16"/>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+        <v>44256</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="17">
         <f>SUM(B8:B30)</f>
         <v>0</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <f>SUM(C8:C30)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <f>SUM(D8:D30)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <f>SUM(E8:E30)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <f>SUM(F8:F30)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <f t="shared" ref="G32:L32" si="0">SUM(G7:G30)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
+    <row r="33" spans="1:12" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="35">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="34">
         <f>SUM(C32:L32)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="H4:K4"/>
+    <mergeCell ref="C7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B20:L20 B18:L18 B16:L16 B14:L14 B12:L12 B10:L10 B8:L8 B26:L26 B22:L22 B24:L24 B28:L28 B30:L30">
     <cfRule type="containsBlanks" dxfId="2" priority="6">
@@ -1476,103 +1653,161 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
   <drawing r:id="rId4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry." error="You must select a valid year from this dropdown menu." promptTitle="Select a new period." prompt="Select a new period from this menu and the date will automatically be updated below." xr:uid="{C6B175DB-460C-4F1A-8768-A0B01501AD15}">
+          <x14:formula1>
+            <xm:f>Logic!$K$9:$K$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B9:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B9:K14"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+    <row r="9" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="45">
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="38">
         <f ca="1">TODAY()</f>
-        <v>43495</v>
+        <v>43981</v>
       </c>
       <c r="C10" t="b">
         <f ca="1">IF(AND($B$10&gt;=E10,$B$10&lt;=F10),TRUE,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f ca="1">D11-1</f>
-        <v>2018</v>
-      </c>
-      <c r="E10" s="45">
+        <v>2019</v>
+      </c>
+      <c r="E10" s="38">
         <f ca="1">DATE(D10,4,1)</f>
-        <v>43191</v>
-      </c>
-      <c r="F10" s="45">
+        <v>43556</v>
+      </c>
+      <c r="F10" s="38">
         <f ca="1">DATE(D11,3,31)</f>
-        <v>43555</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="46"/>
+        <v>43921</v>
+      </c>
+      <c r="J10">
+        <v>-3</v>
+      </c>
+      <c r="K10" s="43">
+        <f ca="1">DATE(YEAR($B$10)+J10,4,1)</f>
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="39"/>
       <c r="C11" t="b">
         <f ca="1">IF(AND($B$10&gt;=E11,$B$10&lt;=F11),TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f ca="1">YEAR(TODAY())</f>
-        <v>2019</v>
-      </c>
-      <c r="E11" s="45">
+        <v>2020</v>
+      </c>
+      <c r="E11" s="38">
         <f t="shared" ref="E11" ca="1" si="0">DATE(D11,4,1)</f>
+        <v>43922</v>
+      </c>
+      <c r="F11" s="38">
+        <f ca="1">DATE(D12,3,31)</f>
+        <v>44286</v>
+      </c>
+      <c r="J11">
+        <v>-2</v>
+      </c>
+      <c r="K11" s="43">
+        <f t="shared" ref="K11:K14" ca="1" si="1">DATE(YEAR($B$10)+J11,4,1)</f>
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39">
+        <f ca="1">D11+1</f>
+        <v>2021</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="39"/>
+      <c r="J12">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="43">
+        <f t="shared" ca="1" si="1"/>
         <v>43556</v>
       </c>
-      <c r="F11" s="45">
-        <f ca="1">DATE(D12,3,31)</f>
-        <v>43921</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46">
-        <f ca="1">D11+1</f>
-        <v>2020</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="43">
+        <f t="shared" ca="1" si="1"/>
+        <v>44287</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
